--- a/data/georgia_census/adjara/xelvachauri/healthcare_staff.xlsx
+++ b/data/georgia_census/adjara/xelvachauri/healthcare_staff.xlsx
@@ -1394,13 +1394,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE20489E-C558-4903-BF32-A8BA313015FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC5D810-1106-41B5-AB05-74E0534E7D47}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBBF5B0D-E2AD-4143-B135-15FD8B4C8452}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF8114C4-0B65-40C6-ABC0-FF90EBCD9C05}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A432F780-6EA2-476B-B4B6-6489FB1F10AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D52DCE85-F879-42C5-9F65-6597565BFAFF}"/>
 </file>